--- a/biology/Zoologie/Baie_de_Chipoudy/Baie_de_Chipoudy.xlsx
+++ b/biology/Zoologie/Baie_de_Chipoudy/Baie_de_Chipoudy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La baie de Chipoudy (en anglais : Shepody Bay) est située au sud-est de la province canadienne du Nouveau-Brunswick. Elle constitue l'estuaire de la rivière Petitcodiac. Elle commence peu après le confluent entre la Petitcodiac et la Memramcook, entre les villages de Hopewell Cape et de Dorchester Cape. Elle se termine environ 14 kilomètres au sud, où une ligne formée par la pointe à Marie (Marys Point), l'île aux Meules et le cap Maringouin la sépare de la baie de Chignectou.
